--- a/documentação/Tabela de Requisitos.xlsx
+++ b/documentação/Tabela de Requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FATEC\Engenharia-de-Software-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3°semestre\eng de sof 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,6 +53,13 @@
     <t>Manutenibilidade</t>
   </si>
   <si>
+    <t xml:space="preserve">* RF0001: O site deve disponibilizar as informações sobre a gestão cidade;
+</t>
+  </si>
+  <si>
+    <t>* RF0001: A interface web acessará informações do banco de dados MySql alimentada pela mineração de dados realizada pelo web crawler;</t>
+  </si>
+  <si>
     <t xml:space="preserve">* RNF01: O sistema deve ser fácil de usar;
 * RNF02: O sistema deve ser acessível;
 </t>
@@ -71,23 +78,13 @@
     <t>* RNF07: O dados devem ser atualizados automaticamente.</t>
   </si>
   <si>
+    <t xml:space="preserve">* RNF01: A interface web deve apresentar um conceito limpo e intuitivo.
+* RNF02: O sistema deve implementar todos os requisitos de nível A, AA e AAA da especificação WCGA 2.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">* RNF03: A interface web deve se manter ativa por no mínimo 18 horas diárias.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* RNF01: A interface web deve apresentar um conceito limpo e intuitivo.
-* RNF02: O sistema deve implementar todos os requisitos de nível A, AA e AAA da especificação WCAG 2.
-</t>
-  </si>
-  <si>
-    <t>* RF0001: O site deve possuir opções de consulta sobre receitas e despesas públicas, balanços anuais, compras e licitações, diárias e passagens dos funcionários;
-* RF0002: O site reservará um espaço para os comentários dos usuários, além de uma pesquisa de satisfação para avaliar o conteúdo apresentado no site;
-* RF0003: O site deve possuir opções de consulta sobre a função de Governo que a obra se destina, órgão contratante, endereço da obra, valor inicial previsto, valor total contratado, nome da empresa contratada, data de início e previsão de término da obra, situação da obra;</t>
-  </si>
-  <si>
-    <t>* RF0001: O site deve disponibilizar informações financeiras públicas municipais;
-* RF0002: O site deve possuir uma área reservada para o feedback dos usuários;
-* RF0003: O site deve disponibilizar informações referentes sobre obras públicas e seus andamentos;</t>
   </si>
 </sst>
 </file>
@@ -274,6 +271,15 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,87 +590,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="70.7109375" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="4" customWidth="1"/>
+    <col min="5" max="1025" width="9.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="91.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
